--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_33.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2559799.669445164</v>
+        <v>2554596.335984847</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.381847141</v>
+        <v>2310564.143223172</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791242</v>
+        <v>419463.0933791244</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8031840.80932193</v>
+        <v>8030070.871150673</v>
       </c>
     </row>
     <row r="11">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>12.725494085322</v>
@@ -677,7 +677,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>129.053149642489</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,13 +713,13 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>206.3670033956581</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
@@ -744,19 +744,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>74.86702424530546</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>34.73694311522086</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
         <v>175.2139736830806</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>55.24675346159196</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>113.1667354347865</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>83.84708725779268</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>365.641588539347</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>33.54550680794554</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>128.7015273624388</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1035,10 +1035,10 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
         <v>177.5210747552478</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>214.0175430895177</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>59.9407611230074</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>230.8006254601195</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>93.86158641218542</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1291,10 +1291,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>13.22962011024177</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>154.7572460957208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C11" t="n">
-        <v>196.5214202053758</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603045</v>
+        <v>74.07584602384553</v>
       </c>
       <c r="F11" t="n">
-        <v>318.7342196110056</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G11" t="n">
-        <v>315.0398534825604</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>42.9624712641434</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.85714503404353</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T11" t="n">
-        <v>127.2743219418611</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
-        <v>244.6944667292004</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X11" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y11" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007185</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035426</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219398</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507309</v>
+        <v>60.01194954507363</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484036</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G13" t="n">
-        <v>72.5802388872325</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H13" t="n">
-        <v>59.93249105380454</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497647</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943239</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S13" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T13" t="n">
-        <v>139.3705868391312</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U13" t="n">
-        <v>188.5931293662017</v>
+        <v>188.5931293662016</v>
       </c>
       <c r="V13" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W13" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X13" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y13" t="n">
-        <v>126.8896660972067</v>
+        <v>126.8896660972066</v>
       </c>
     </row>
     <row r="14">
@@ -1610,22 +1610,22 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
-        <v>287.5954430211825</v>
+        <v>273.482381017326</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603044</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>318.7342196110055</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T14" t="n">
         <v>127.274321941861</v>
@@ -1664,7 +1664,7 @@
         <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
-        <v>14.20389759274144</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
         <v>273.2977702070789</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035421</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H16" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S16" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T16" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U16" t="n">
         <v>188.5931293662016</v>
@@ -1844,7 +1844,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
         <v>251.2267481799146</v>
@@ -1853,16 +1853,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
-        <v>122.8352329541619</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
         <v>251.2267481799146</v>
@@ -2090,16 +2090,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006892</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
         <v>251.2267481799146</v>
@@ -2327,16 +2327,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F23" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2789,19 +2789,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C29" t="n">
-        <v>295.2524720077823</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D29" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F29" t="n">
-        <v>318.7342196110056</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G29" t="n">
         <v>315.0398534825604</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.9624712641434</v>
+        <v>42.96247126414245</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404353</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
-        <v>127.2743219418611</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U29" t="n">
-        <v>159.203927795431</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V29" t="n">
-        <v>244.6944667292004</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007185</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035426</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219398</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507309</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484036</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.5802388872325</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380454</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497647</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943239</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3004,19 +3004,19 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
-        <v>188.5931293662017</v>
+        <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y31" t="n">
-        <v>126.8896660972067</v>
+        <v>126.8896660972066</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.9034269003577</v>
+        <v>280.4599644277188</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281734</v>
+        <v>273.2139126555346</v>
       </c>
       <c r="D32" t="n">
-        <v>272.0003461415737</v>
+        <v>265.5568836689349</v>
       </c>
       <c r="E32" t="n">
-        <v>288.9713182806956</v>
+        <v>282.5278558080568</v>
       </c>
       <c r="F32" t="n">
-        <v>303.1391227313968</v>
+        <v>296.6956602587579</v>
       </c>
       <c r="G32" t="n">
-        <v>299.4447566029516</v>
+        <v>293.0012941303128</v>
       </c>
       <c r="H32" t="n">
-        <v>211.255848575249</v>
+        <v>204.8123861026102</v>
       </c>
       <c r="I32" t="n">
-        <v>27.36737438453459</v>
+        <v>20.92391191189574</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443471</v>
+        <v>48.81858568179587</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622523</v>
+        <v>105.2357625896134</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158221</v>
+        <v>137.1653684431833</v>
       </c>
       <c r="V32" t="n">
-        <v>229.0993698495915</v>
+        <v>222.6559073769527</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274702</v>
+        <v>251.2592108548313</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623485</v>
+        <v>269.5282451897097</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.9394306346796</v>
+        <v>276.4959681620408</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.76956715046303</v>
+        <v>67.32610467782419</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074544</v>
+        <v>52.4732329281066</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258517</v>
+        <v>38.04694813994632</v>
       </c>
       <c r="E34" t="n">
-        <v>44.41685266546428</v>
+        <v>37.97339019282543</v>
       </c>
       <c r="F34" t="n">
-        <v>46.16630408523154</v>
+        <v>39.7228416125927</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762368</v>
+        <v>50.54167953498484</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419572</v>
+        <v>37.89393170155688</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536765</v>
+        <v>15.73364728272881</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.07560811982357</v>
+        <v>6.632145647184728</v>
       </c>
       <c r="S34" t="n">
-        <v>91.20155162535089</v>
+        <v>84.75808915271205</v>
       </c>
       <c r="T34" t="n">
-        <v>123.775489959523</v>
+        <v>117.3320274868841</v>
       </c>
       <c r="U34" t="n">
-        <v>172.9980324865928</v>
+        <v>166.554570013954</v>
       </c>
       <c r="V34" t="n">
-        <v>153.7331803734588</v>
+        <v>147.2897179008199</v>
       </c>
       <c r="W34" t="n">
-        <v>170.9107266942089</v>
+        <v>164.4672642215701</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409215</v>
+        <v>115.7096851682826</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.2945692175978</v>
+        <v>104.851106744959</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
@@ -3272,7 +3272,7 @@
         <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
         <v>282.3655247697376</v>
@@ -3284,7 +3284,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U35" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
         <v>236.929075365811</v>
@@ -3332,7 +3332,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380507</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357234</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596447</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
         <v>132.9595824117996</v>
@@ -3490,7 +3490,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="38">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>300.022958784051</v>
+        <v>300.0229587840511</v>
       </c>
       <c r="C41" t="n">
-        <v>292.7769070118667</v>
+        <v>292.7769070118669</v>
       </c>
       <c r="D41" t="n">
-        <v>285.119878025267</v>
+        <v>1.09831080392123</v>
       </c>
       <c r="E41" t="n">
-        <v>302.0908501643889</v>
+        <v>302.0908501643891</v>
       </c>
       <c r="F41" t="n">
-        <v>316.2586546150901</v>
+        <v>316.2586546150902</v>
       </c>
       <c r="G41" t="n">
-        <v>312.5642884866449</v>
+        <v>312.564288486645</v>
       </c>
       <c r="H41" t="n">
-        <v>5.069672324697155</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>40.48690626822788</v>
+        <v>40.48690626822797</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.38158003812801</v>
+        <v>68.38158003812809</v>
       </c>
       <c r="T41" t="n">
         <v>124.7987569459456</v>
       </c>
       <c r="U41" t="n">
-        <v>156.7283627995154</v>
+        <v>156.7283627995155</v>
       </c>
       <c r="V41" t="n">
-        <v>242.2189017332848</v>
+        <v>242.218901733285</v>
       </c>
       <c r="W41" t="n">
-        <v>270.8222052111635</v>
+        <v>270.8222052111636</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>289.0912395460419</v>
       </c>
       <c r="Y41" t="n">
-        <v>296.0589625183729</v>
+        <v>296.0589625183731</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.88909903415633</v>
+        <v>86.88909903415642</v>
       </c>
       <c r="C43" t="n">
-        <v>72.03622728443874</v>
+        <v>72.03622728443882</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60994249627846</v>
+        <v>57.60994249627855</v>
       </c>
       <c r="E43" t="n">
-        <v>57.53638454915757</v>
+        <v>57.53638454915766</v>
       </c>
       <c r="F43" t="n">
-        <v>59.28583596892484</v>
+        <v>59.28583596892493</v>
       </c>
       <c r="G43" t="n">
-        <v>70.10467389131698</v>
+        <v>70.10467389131706</v>
       </c>
       <c r="H43" t="n">
-        <v>57.45692605788902</v>
+        <v>57.45692605788911</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29664163906095</v>
+        <v>35.29664163906104</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.19514000351687</v>
+        <v>26.19514000351695</v>
       </c>
       <c r="S43" t="n">
-        <v>104.3210835090442</v>
+        <v>104.3210835090443</v>
       </c>
       <c r="T43" t="n">
         <v>136.8950218432163</v>
       </c>
       <c r="U43" t="n">
-        <v>186.1175643702861</v>
+        <v>186.1175643702862</v>
       </c>
       <c r="V43" t="n">
-        <v>166.8527122571521</v>
+        <v>166.8527122571522</v>
       </c>
       <c r="W43" t="n">
-        <v>184.0302585779022</v>
+        <v>184.0302585779023</v>
       </c>
       <c r="X43" t="n">
-        <v>135.2726795246148</v>
+        <v>135.2726795246149</v>
       </c>
       <c r="Y43" t="n">
-        <v>124.4141011012911</v>
+        <v>124.4141011012912</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>300.022958784051</v>
+        <v>300.0229587840511</v>
       </c>
       <c r="C44" t="n">
-        <v>292.7769070118667</v>
+        <v>292.7769070118669</v>
       </c>
       <c r="D44" t="n">
-        <v>285.119878025267</v>
+        <v>41.58521707214932</v>
       </c>
       <c r="E44" t="n">
-        <v>302.0908501643889</v>
+        <v>302.0908501643891</v>
       </c>
       <c r="F44" t="n">
-        <v>316.2586546150901</v>
+        <v>316.2586546150902</v>
       </c>
       <c r="G44" t="n">
-        <v>74.98954601752217</v>
+        <v>312.564288486645</v>
       </c>
       <c r="H44" t="n">
-        <v>224.3753804589423</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>40.48690626822788</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.38158003812801</v>
+        <v>68.38158003812809</v>
       </c>
       <c r="T44" t="n">
         <v>124.7987569459456</v>
       </c>
       <c r="U44" t="n">
-        <v>156.7283627995154</v>
+        <v>156.7283627995155</v>
       </c>
       <c r="V44" t="n">
-        <v>242.2189017332848</v>
+        <v>242.218901733285</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>270.8222052111636</v>
       </c>
       <c r="X44" t="n">
-        <v>289.0912395460418</v>
+        <v>289.0912395460419</v>
       </c>
       <c r="Y44" t="n">
-        <v>296.0589625183729</v>
+        <v>296.0589625183731</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.88909903415633</v>
+        <v>86.88909903415642</v>
       </c>
       <c r="C46" t="n">
-        <v>72.03622728443874</v>
+        <v>72.03622728443882</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60994249627846</v>
+        <v>57.60994249627855</v>
       </c>
       <c r="E46" t="n">
-        <v>57.53638454915757</v>
+        <v>57.53638454915766</v>
       </c>
       <c r="F46" t="n">
-        <v>59.28583596892484</v>
+        <v>59.28583596892493</v>
       </c>
       <c r="G46" t="n">
-        <v>70.10467389131698</v>
+        <v>70.10467389131706</v>
       </c>
       <c r="H46" t="n">
-        <v>57.45692605788902</v>
+        <v>57.45692605788911</v>
       </c>
       <c r="I46" t="n">
-        <v>35.29664163906095</v>
+        <v>35.29664163906104</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.19514000351687</v>
+        <v>26.19514000351695</v>
       </c>
       <c r="S46" t="n">
-        <v>104.3210835090442</v>
+        <v>104.3210835090443</v>
       </c>
       <c r="T46" t="n">
         <v>136.8950218432163</v>
       </c>
       <c r="U46" t="n">
-        <v>186.1175643702861</v>
+        <v>186.1175643702862</v>
       </c>
       <c r="V46" t="n">
-        <v>166.8527122571521</v>
+        <v>166.8527122571522</v>
       </c>
       <c r="W46" t="n">
-        <v>184.0302585779022</v>
+        <v>184.0302585779023</v>
       </c>
       <c r="X46" t="n">
-        <v>135.2726795246148</v>
+        <v>135.2726795246149</v>
       </c>
       <c r="Y46" t="n">
-        <v>124.4141011012911</v>
+        <v>124.4141011012912</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1325.530820606214</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="C2" t="n">
-        <v>1325.530820606214</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="D2" t="n">
-        <v>1325.530820606214</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="E2" t="n">
-        <v>922.9472957227581</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="F2" t="n">
-        <v>910.0932612931399</v>
+        <v>777.7441318441286</v>
       </c>
       <c r="G2" t="n">
-        <v>496.930505781143</v>
+        <v>364.5813763321316</v>
       </c>
       <c r="H2" t="n">
-        <v>172.8474553476337</v>
+        <v>40.49832589862227</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703874</v>
+        <v>40.49832589862227</v>
       </c>
       <c r="J2" t="n">
-        <v>42.49073853703874</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="K2" t="n">
-        <v>401.4730945645006</v>
+        <v>242.2021271932837</v>
       </c>
       <c r="L2" t="n">
-        <v>894.7933862830293</v>
+        <v>735.5224189118126</v>
       </c>
       <c r="M2" t="n">
-        <v>894.7933862830293</v>
+        <v>1236.689201907263</v>
       </c>
       <c r="N2" t="n">
-        <v>1420.616275678884</v>
+        <v>1236.689201907263</v>
       </c>
       <c r="O2" t="n">
-        <v>1860.655876571212</v>
+        <v>1676.728802799592</v>
       </c>
       <c r="P2" t="n">
-        <v>1939.691366710989</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.536926851937</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R2" t="n">
-        <v>2086.544013137459</v>
+        <v>1986.923381216635</v>
       </c>
       <c r="S2" t="n">
-        <v>1920.03045807851</v>
+        <v>1820.409826157686</v>
       </c>
       <c r="T2" t="n">
-        <v>1696.529855637926</v>
+        <v>1596.909223717103</v>
       </c>
       <c r="U2" t="n">
-        <v>1696.529855637926</v>
+        <v>1341.156494151701</v>
       </c>
       <c r="V2" t="n">
-        <v>1696.529855637926</v>
+        <v>999.0496848552197</v>
       </c>
       <c r="W2" t="n">
-        <v>1325.530820606214</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="X2" t="n">
-        <v>1325.530820606214</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="Y2" t="n">
-        <v>1325.530820606214</v>
+        <v>790.5981662737468</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>705.4102307879574</v>
+        <v>657.7430775364701</v>
       </c>
       <c r="C3" t="n">
-        <v>554.7560003480496</v>
+        <v>507.0888470965623</v>
       </c>
       <c r="D3" t="n">
-        <v>424.6670329695299</v>
+        <v>376.9998797180426</v>
       </c>
       <c r="E3" t="n">
-        <v>424.6670329695299</v>
+        <v>240.5533888289303</v>
       </c>
       <c r="F3" t="n">
-        <v>300.2352268526618</v>
+        <v>116.1215827120621</v>
       </c>
       <c r="G3" t="n">
-        <v>180.1754089245262</v>
+        <v>40.49832589862227</v>
       </c>
       <c r="H3" t="n">
-        <v>91.87799252512715</v>
+        <v>40.49832589862227</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703874</v>
+        <v>40.49832589862227</v>
       </c>
       <c r="J3" t="n">
-        <v>42.49073853703874</v>
+        <v>153.6133081183497</v>
       </c>
       <c r="K3" t="n">
-        <v>362.2298845992652</v>
+        <v>153.6133081183497</v>
       </c>
       <c r="L3" t="n">
-        <v>845.7959704975784</v>
+        <v>637.1793940166629</v>
       </c>
       <c r="M3" t="n">
-        <v>1371.618859893433</v>
+        <v>637.1793940166629</v>
       </c>
       <c r="N3" t="n">
-        <v>1890.171835297047</v>
+        <v>1138.346177012113</v>
       </c>
       <c r="O3" t="n">
-        <v>1890.171835297047</v>
+        <v>1384.929834659825</v>
       </c>
       <c r="P3" t="n">
-        <v>1890.171835297047</v>
+        <v>1790.551203376223</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.536926851937</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R3" t="n">
-        <v>2100.619883750001</v>
+        <v>2000.999251829178</v>
       </c>
       <c r="S3" t="n">
-        <v>2065.532062421496</v>
+        <v>1866.068574729047</v>
       </c>
       <c r="T3" t="n">
-        <v>1888.548250620404</v>
+        <v>1689.084762927955</v>
       </c>
       <c r="U3" t="n">
-        <v>1678.485107299046</v>
+        <v>1479.021619606597</v>
       </c>
       <c r="V3" t="n">
-        <v>1455.945105670113</v>
+        <v>1256.481617977664</v>
       </c>
       <c r="W3" t="n">
-        <v>1225.8278598034</v>
+        <v>1026.364372110951</v>
       </c>
       <c r="X3" t="n">
-        <v>1036.520782153412</v>
+        <v>837.0572944609628</v>
       </c>
       <c r="Y3" t="n">
-        <v>857.2065652289187</v>
+        <v>657.7430775364701</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42.49073853703874</v>
+        <v>241.0817140065311</v>
       </c>
       <c r="C4" t="n">
-        <v>42.49073853703874</v>
+        <v>70.87659607252033</v>
       </c>
       <c r="D4" t="n">
-        <v>42.49073853703874</v>
+        <v>70.87659607252033</v>
       </c>
       <c r="E4" t="n">
-        <v>42.49073853703874</v>
+        <v>70.87659607252033</v>
       </c>
       <c r="F4" t="n">
-        <v>42.49073853703874</v>
+        <v>70.87659607252033</v>
       </c>
       <c r="G4" t="n">
-        <v>42.49073853703874</v>
+        <v>70.87659607252033</v>
       </c>
       <c r="H4" t="n">
-        <v>42.49073853703874</v>
+        <v>70.87659607252033</v>
       </c>
       <c r="I4" t="n">
-        <v>42.49073853703874</v>
+        <v>70.87659607252033</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703874</v>
+        <v>40.49832589862227</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469806</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207804</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590444</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902535</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319615</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085401</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785911</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R4" t="n">
-        <v>943.9377610785911</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="S4" t="n">
-        <v>943.9377610785911</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="T4" t="n">
-        <v>708.2187092468251</v>
+        <v>582.3253072409857</v>
       </c>
       <c r="U4" t="n">
-        <v>422.7799174887261</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="V4" t="n">
-        <v>156.8005723095503</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="W4" t="n">
-        <v>156.8005723095503</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="X4" t="n">
-        <v>42.49073853703874</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="Y4" t="n">
-        <v>42.49073853703874</v>
+        <v>296.8865154828866</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>990.8288950125726</v>
+        <v>551.2091433733613</v>
       </c>
       <c r="C5" t="n">
-        <v>990.8288950125726</v>
+        <v>551.2091433733613</v>
       </c>
       <c r="D5" t="n">
-        <v>605.3877662292404</v>
+        <v>551.2091433733613</v>
       </c>
       <c r="E5" t="n">
-        <v>202.8042413457848</v>
+        <v>551.2091433733613</v>
       </c>
       <c r="F5" t="n">
-        <v>189.9502069161667</v>
+        <v>538.3551089437431</v>
       </c>
       <c r="G5" t="n">
-        <v>180.8278554445739</v>
+        <v>125.1923534317462</v>
       </c>
       <c r="H5" t="n">
-        <v>180.8278554445739</v>
+        <v>40.49832589862227</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703874</v>
+        <v>40.49832589862227</v>
       </c>
       <c r="J5" t="n">
-        <v>42.49073853703874</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="K5" t="n">
-        <v>42.49073853703874</v>
+        <v>544.1304548349121</v>
       </c>
       <c r="L5" t="n">
-        <v>535.8110302555676</v>
+        <v>990.7164596631926</v>
       </c>
       <c r="M5" t="n">
-        <v>625.6413842912839</v>
+        <v>1491.883242658643</v>
       </c>
       <c r="N5" t="n">
-        <v>1151.464273687138</v>
+        <v>1491.883242658643</v>
       </c>
       <c r="O5" t="n">
-        <v>1591.503874579467</v>
+        <v>1491.883242658643</v>
       </c>
       <c r="P5" t="n">
-        <v>1939.691366710989</v>
+        <v>1840.070734790165</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.536926851937</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R5" t="n">
-        <v>2124.536926851937</v>
+        <v>1986.923381216635</v>
       </c>
       <c r="S5" t="n">
-        <v>1958.023371792988</v>
+        <v>1820.409826157686</v>
       </c>
       <c r="T5" t="n">
-        <v>1958.023371792988</v>
+        <v>1596.909223717103</v>
       </c>
       <c r="U5" t="n">
-        <v>1702.270642227586</v>
+        <v>1341.156494151701</v>
       </c>
       <c r="V5" t="n">
-        <v>1360.163832931105</v>
+        <v>1341.156494151701</v>
       </c>
       <c r="W5" t="n">
-        <v>990.8288950125726</v>
+        <v>1341.156494151701</v>
       </c>
       <c r="X5" t="n">
-        <v>990.8288950125726</v>
+        <v>951.7038890847581</v>
       </c>
       <c r="Y5" t="n">
-        <v>990.8288950125726</v>
+        <v>951.7038890847581</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>841.8567216770697</v>
+        <v>736.0639889622219</v>
       </c>
       <c r="C6" t="n">
-        <v>691.2024912371619</v>
+        <v>585.4097585223141</v>
       </c>
       <c r="D6" t="n">
-        <v>561.1135238586422</v>
+        <v>455.3207911437944</v>
       </c>
       <c r="E6" t="n">
-        <v>424.6670329695299</v>
+        <v>318.8743002546821</v>
       </c>
       <c r="F6" t="n">
-        <v>300.2352268526618</v>
+        <v>194.4424941378139</v>
       </c>
       <c r="G6" t="n">
-        <v>180.1754089245262</v>
+        <v>74.38267620967837</v>
       </c>
       <c r="H6" t="n">
-        <v>91.87799252512715</v>
+        <v>74.38267620967837</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703874</v>
+        <v>40.49832589862227</v>
       </c>
       <c r="J6" t="n">
-        <v>155.6057207567661</v>
+        <v>153.6133081183497</v>
       </c>
       <c r="K6" t="n">
-        <v>475.3448668189926</v>
+        <v>473.3524541805761</v>
       </c>
       <c r="L6" t="n">
-        <v>958.9109527173058</v>
+        <v>956.9185400788894</v>
       </c>
       <c r="M6" t="n">
-        <v>958.9109527173058</v>
+        <v>956.9185400788894</v>
       </c>
       <c r="N6" t="n">
-        <v>1484.550466580649</v>
+        <v>1458.08532307434</v>
       </c>
       <c r="O6" t="n">
-        <v>1484.550466580649</v>
+        <v>1619.294926214716</v>
       </c>
       <c r="P6" t="n">
-        <v>1890.171835297047</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.536926851937</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R6" t="n">
-        <v>2100.619883750001</v>
+        <v>2000.999251829178</v>
       </c>
       <c r="S6" t="n">
-        <v>1965.68920664987</v>
+        <v>1866.068574729047</v>
       </c>
       <c r="T6" t="n">
-        <v>1835.687663859528</v>
+        <v>1689.084762927955</v>
       </c>
       <c r="U6" t="n">
-        <v>1625.62452053817</v>
+        <v>1479.021619606597</v>
       </c>
       <c r="V6" t="n">
-        <v>1403.084518909237</v>
+        <v>1256.481617977664</v>
       </c>
       <c r="W6" t="n">
-        <v>1172.967273042524</v>
+        <v>1256.481617977664</v>
       </c>
       <c r="X6" t="n">
-        <v>1172.967273042524</v>
+        <v>1067.174540327676</v>
       </c>
       <c r="Y6" t="n">
-        <v>993.653056118031</v>
+        <v>887.8603234031832</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>198.123851634524</v>
+        <v>40.49832589862227</v>
       </c>
       <c r="C7" t="n">
-        <v>198.123851634524</v>
+        <v>40.49832589862227</v>
       </c>
       <c r="D7" t="n">
-        <v>42.49073853703874</v>
+        <v>40.49832589862227</v>
       </c>
       <c r="E7" t="n">
-        <v>42.49073853703874</v>
+        <v>40.49832589862227</v>
       </c>
       <c r="F7" t="n">
-        <v>42.49073853703874</v>
+        <v>40.49832589862227</v>
       </c>
       <c r="G7" t="n">
-        <v>42.49073853703874</v>
+        <v>40.49832589862227</v>
       </c>
       <c r="H7" t="n">
-        <v>42.49073853703874</v>
+        <v>40.49832589862227</v>
       </c>
       <c r="I7" t="n">
-        <v>42.49073853703874</v>
+        <v>40.49832589862227</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703874</v>
+        <v>40.49832589862227</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469806</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207804</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590444</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902535</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319615</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085401</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785911</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785911</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="S7" t="n">
-        <v>943.9377610785911</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="T7" t="n">
-        <v>943.9377610785911</v>
+        <v>725.7660119861163</v>
       </c>
       <c r="U7" t="n">
-        <v>943.9377610785911</v>
+        <v>725.7660119861163</v>
       </c>
       <c r="V7" t="n">
-        <v>677.9584158994153</v>
+        <v>459.7866668069405</v>
       </c>
       <c r="W7" t="n">
-        <v>617.4121925428421</v>
+        <v>459.7866668069405</v>
       </c>
       <c r="X7" t="n">
-        <v>383.3318703258253</v>
+        <v>225.7063445899236</v>
       </c>
       <c r="Y7" t="n">
-        <v>383.3318703258253</v>
+        <v>225.7063445899236</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1029.087876228931</v>
+        <v>1285.397995218369</v>
       </c>
       <c r="C8" t="n">
-        <v>795.9559313197194</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="D8" t="n">
-        <v>795.9559313197194</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="E8" t="n">
-        <v>393.3724064362639</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="F8" t="n">
-        <v>380.5183720066457</v>
+        <v>879.3684592916816</v>
       </c>
       <c r="G8" t="n">
-        <v>371.396020535053</v>
+        <v>466.2057037796847</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>142.1226533461754</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4805,22 +4805,22 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>538.1002202902207</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>1031.420512008749</v>
       </c>
       <c r="M8" t="n">
-        <v>1590.266290800943</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="N8" t="n">
-        <v>1590.266290800943</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4832,22 +4832,22 @@
         <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2161.142036303753</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>1819.035227007271</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W8" t="n">
-        <v>1819.035227007271</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="X8" t="n">
-        <v>1429.582621940328</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="Y8" t="n">
-        <v>1429.582621940328</v>
+        <v>1285.397995218369</v>
       </c>
     </row>
     <row r="9">
@@ -4887,19 +4887,19 @@
         <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="M9" t="n">
-        <v>1549.231189288413</v>
+        <v>1065.6651033901</v>
       </c>
       <c r="N9" t="n">
-        <v>2134.729194295015</v>
+        <v>1651.163108396702</v>
       </c>
       <c r="O9" t="n">
-        <v>2134.729194295015</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>373.1512011330396</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>202.9460831990289</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4987,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="X10" t="n">
-        <v>714.6796704260792</v>
+        <v>232.5209887928449</v>
       </c>
       <c r="Y10" t="n">
-        <v>558.3592198243409</v>
+        <v>232.5209887928449</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1480.983092530629</v>
+        <v>1320.171044252416</v>
       </c>
       <c r="C11" t="n">
-        <v>1282.476607474693</v>
+        <v>1021.936224042535</v>
       </c>
       <c r="D11" t="n">
-        <v>1282.476607474693</v>
+        <v>731.435776546391</v>
       </c>
       <c r="E11" t="n">
-        <v>974.833763878426</v>
+        <v>656.6116896536171</v>
       </c>
       <c r="F11" t="n">
-        <v>652.8800066955921</v>
+        <v>334.6579324707832</v>
       </c>
       <c r="G11" t="n">
-        <v>334.6579324707835</v>
+        <v>334.6579324707832</v>
       </c>
       <c r="H11" t="n">
-        <v>105.5155633244624</v>
+        <v>105.5155633244622</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5069,22 +5069,22 @@
         <v>3034.383511434015</v>
       </c>
       <c r="T11" t="n">
-        <v>2905.82359028062</v>
+        <v>2905.823590280621</v>
       </c>
       <c r="U11" t="n">
-        <v>2905.82359028062</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V11" t="n">
-        <v>2658.657462271327</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W11" t="n">
-        <v>2382.599108526803</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X11" t="n">
-        <v>2088.087184747048</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y11" t="n">
-        <v>1786.537156954837</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="12">
@@ -5124,19 +5124,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>545.6852136024288</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M12" t="n">
-        <v>1173.45686322911</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N12" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2345.75511703065</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,58 +5173,58 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551004</v>
+        <v>493.0843669551006</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082779</v>
+        <v>417.8199303082781</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979809</v>
+        <v>357.1274984979812</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443718</v>
+        <v>296.5093676443717</v>
       </c>
       <c r="F13" t="n">
-        <v>234.124114144533</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G13" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311669</v>
       </c>
       <c r="H13" t="n">
-        <v>100.2728717798494</v>
+        <v>100.2728717798493</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>125.3967468362512</v>
+        <v>125.3967468362514</v>
       </c>
       <c r="K13" t="n">
-        <v>300.2831496757661</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791391</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M13" t="n">
-        <v>836.8050913469764</v>
+        <v>836.805091346977</v>
       </c>
       <c r="N13" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O13" t="n">
-        <v>1368.80221587904</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P13" t="n">
         <v>1581.729743385192</v>
       </c>
       <c r="Q13" t="n">
-        <v>1678.203301484816</v>
+        <v>1678.203301484817</v>
       </c>
       <c r="R13" t="n">
         <v>1649.242993404582</v>
       </c>
       <c r="S13" t="n">
-        <v>1541.367590874319</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T13" t="n">
         <v>1400.589220329742</v>
@@ -5233,16 +5233,16 @@
         <v>1210.091109858832</v>
       </c>
       <c r="V13" t="n">
-        <v>1039.052445966845</v>
+        <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
         <v>850.6627251852103</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553817</v>
+        <v>711.5230842553818</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592134</v>
+        <v>583.3517043592135</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1552.98980095591</v>
+        <v>1320.171044252416</v>
       </c>
       <c r="C14" t="n">
-        <v>1254.754980746029</v>
+        <v>1021.936224042535</v>
       </c>
       <c r="D14" t="n">
-        <v>964.2545332498848</v>
+        <v>745.6913947321049</v>
       </c>
       <c r="E14" t="n">
-        <v>656.6116896536172</v>
+        <v>745.6913947321049</v>
       </c>
       <c r="F14" t="n">
-        <v>334.6579324707834</v>
+        <v>423.737637549271</v>
       </c>
       <c r="G14" t="n">
-        <v>334.6579324707834</v>
+        <v>105.5155633244625</v>
       </c>
       <c r="H14" t="n">
-        <v>105.5155633244624</v>
+        <v>105.5155633244625</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5312,16 +5312,16 @@
         <v>2745.011542002408</v>
       </c>
       <c r="V14" t="n">
-        <v>2730.664170696608</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W14" t="n">
-        <v>2454.605816952084</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X14" t="n">
-        <v>2160.093893172329</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y14" t="n">
-        <v>1858.543865380118</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1173.45686322911</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P15" t="n">
         <v>2146.089571124861</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551006</v>
+        <v>493.0843669551003</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082781</v>
+        <v>417.8199303082778</v>
       </c>
       <c r="D16" t="n">
         <v>357.1274984979809</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443721</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445335</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G16" t="n">
-        <v>160.8107415311672</v>
+        <v>160.8107415311669</v>
       </c>
       <c r="H16" t="n">
-        <v>100.2728717798495</v>
+        <v>100.2728717798493</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5449,37 +5449,37 @@
         <v>1113.046087107759</v>
       </c>
       <c r="O16" t="n">
-        <v>1368.802215879041</v>
+        <v>1368.80221587904</v>
       </c>
       <c r="P16" t="n">
         <v>1581.729743385192</v>
       </c>
       <c r="Q16" t="n">
-        <v>1678.203301484817</v>
+        <v>1678.203301484816</v>
       </c>
       <c r="R16" t="n">
         <v>1649.242993404582</v>
       </c>
       <c r="S16" t="n">
-        <v>1541.36759087432</v>
+        <v>1541.367590874319</v>
       </c>
       <c r="T16" t="n">
         <v>1400.589220329742</v>
       </c>
       <c r="U16" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V16" t="n">
         <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852103</v>
+        <v>850.6627251852096</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553818</v>
+        <v>711.5230842553811</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592135</v>
+        <v>583.3517043592132</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099317</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803433</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924229</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5543,22 +5543,22 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224692</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5601,13 +5601,13 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>1458.313011372373</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N18" t="n">
-        <v>1458.313011372373</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P18" t="n">
         <v>2380.454662679751</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>161.4017547291065</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>243.2367958390484</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L19" t="n">
-        <v>407.3644357128481</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M19" t="n">
-        <v>593.6560140511122</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N19" t="n">
-        <v>776.8456480823213</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>939.5504151240293</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099317</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803433</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924229</v>
+        <v>68.77950792924243</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358934</v>
@@ -5777,7 +5777,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5789,13 +5789,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5829,16 +5829,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M21" t="n">
-        <v>1223.947919817482</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5917,43 +5917,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>499.9530296343059</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879436</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296516</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.77996610623</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476281</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5969,19 +5969,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924229</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6020,19 +6020,19 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573996</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224692</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6069,19 +6069,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.947919817482</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P24" t="n">
         <v>2146.089571124861</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6148,49 +6148,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L25" t="n">
-        <v>313.6614512960418</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M25" t="n">
-        <v>499.9530296343059</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879436</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296516</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6203,16 +6203,16 @@
         <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218597</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
         <v>345.9036637142181</v>
@@ -6224,13 +6224,13 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134135</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
         <v>1895.47226483567</v>
@@ -6239,13 +6239,13 @@
         <v>2516.334910202705</v>
       </c>
       <c r="O26" t="n">
-        <v>3042.158533375469</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P26" t="n">
-        <v>3483.397387236565</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q26" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
         <v>3668.242947377513</v>
@@ -6254,7 +6254,7 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
         <v>3307.298104174144</v>
@@ -6303,19 +6303,19 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>876.6700909080899</v>
+        <v>1095.935962441339</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="O27" t="n">
         <v>1751.713933651898</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517127</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D28" t="n">
         <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
         <v>172.0564727746017</v>
@@ -6382,16 +6382,16 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796857</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192009</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L28" t="n">
-        <v>568.707882522574</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6406,7 +6406,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
         <v>1552.613322117754</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286446</v>
+        <v>861.9084564286449</v>
       </c>
       <c r="X28" t="n">
-        <v>722.768815498816</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="29">
@@ -6446,67 +6446,67 @@
         <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218595</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390256</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142171</v>
       </c>
       <c r="H29" t="n">
-        <v>116.7612945678971</v>
+        <v>116.7612945678962</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563783</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>670.0483496134134</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1163.368641331942</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1802.420903106096</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2423.283548473131</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O29" t="n">
-        <v>2956.374511095033</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508977</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.428440379499</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
         <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="30">
@@ -6534,13 +6534,13 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H30" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
         <v>393.1040050097767</v>
@@ -6549,13 +6549,13 @@
         <v>876.6700909080899</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>1504.441740534771</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="P30" t="n">
         <v>2157.335302368295</v>
@@ -6598,43 +6598,43 @@
         <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517127</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746016</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232842</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904114</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P31" t="n">
         <v>1592.975474628627</v>
@@ -6658,10 +6658,10 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988161</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
         <v>594.5974356026481</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.367013084636</v>
+        <v>1719.814764781097</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985471</v>
+        <v>1443.841115634092</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600043</v>
+        <v>1175.601839200824</v>
       </c>
       <c r="E32" t="n">
-        <v>918.2467711144916</v>
+        <v>890.2201666674332</v>
       </c>
       <c r="F32" t="n">
-        <v>612.0456370423735</v>
+        <v>590.5275805474757</v>
       </c>
       <c r="G32" t="n">
-        <v>309.5761859282813</v>
+        <v>294.5666773855437</v>
       </c>
       <c r="H32" t="n">
-        <v>96.18643989267628</v>
+        <v>87.68547930209937</v>
       </c>
       <c r="I32" t="n">
-        <v>68.54262738304539</v>
+        <v>66.55021474462892</v>
       </c>
       <c r="J32" t="n">
-        <v>321.6829079322595</v>
+        <v>211.199987653457</v>
       </c>
       <c r="K32" t="n">
-        <v>680.6652639597213</v>
+        <v>570.1823436809188</v>
       </c>
       <c r="L32" t="n">
-        <v>1173.98555567825</v>
+        <v>1063.502635399448</v>
       </c>
       <c r="M32" t="n">
-        <v>1719.986455722831</v>
+        <v>1609.503535444028</v>
       </c>
       <c r="N32" t="n">
-        <v>2274.314555438259</v>
+        <v>2137.31481908149</v>
       </c>
       <c r="O32" t="n">
-        <v>2714.354156330587</v>
+        <v>2692.223955462117</v>
       </c>
       <c r="P32" t="n">
-        <v>3062.541648462109</v>
+        <v>3040.411447593639</v>
       </c>
       <c r="Q32" t="n">
-        <v>3355.877716243443</v>
+        <v>3327.510737231446</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152269</v>
+        <v>3327.510737231446</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.311118491224</v>
+        <v>3278.199034522561</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.503820448545</v>
+        <v>3171.900284432043</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.444395281048</v>
+        <v>3033.349407216706</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.030890382471</v>
+        <v>2808.44445027029</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748662</v>
+        <v>2554.647267588642</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079623</v>
+        <v>2282.396514871763</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.168454398129</v>
+        <v>2003.107658142429</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230763</v>
+        <v>865.9161978846598</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831685</v>
+        <v>715.261967444752</v>
       </c>
       <c r="D33" t="n">
-        <v>587.1654127046488</v>
+        <v>585.1730000662324</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155366</v>
+        <v>448.7265091771201</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986684</v>
+        <v>324.2947030602519</v>
       </c>
       <c r="G33" t="n">
-        <v>206.2272977705329</v>
+        <v>204.2348851321164</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711338</v>
+        <v>115.9374687327173</v>
       </c>
       <c r="I33" t="n">
-        <v>68.54262738304539</v>
+        <v>66.55021474462892</v>
       </c>
       <c r="J33" t="n">
-        <v>68.54262738304539</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="K33" t="n">
-        <v>388.2817734452718</v>
+        <v>499.4043430265828</v>
       </c>
       <c r="L33" t="n">
-        <v>871.847859343585</v>
+        <v>499.4043430265828</v>
       </c>
       <c r="M33" t="n">
-        <v>1230.371419496412</v>
+        <v>1127.175992653264</v>
       </c>
       <c r="N33" t="n">
-        <v>1230.371419496412</v>
+        <v>1782.953963863823</v>
       </c>
       <c r="O33" t="n">
-        <v>1746.891702087393</v>
+        <v>1782.953963863823</v>
       </c>
       <c r="P33" t="n">
-        <v>2152.513070803791</v>
+        <v>2188.57533258022</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766815</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.01916188853</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.2395048590186</v>
+        <v>341.687256555479</v>
       </c>
       <c r="C34" t="n">
-        <v>329.7276913229121</v>
+        <v>288.6839909715329</v>
       </c>
       <c r="D34" t="n">
-        <v>284.7878826233311</v>
+        <v>250.2527302241124</v>
       </c>
       <c r="E34" t="n">
-        <v>239.9223748804379</v>
+        <v>211.8957704333797</v>
       </c>
       <c r="F34" t="n">
-        <v>193.2897444913152</v>
+        <v>171.7716879964173</v>
       </c>
       <c r="G34" t="n">
-        <v>135.728994988665</v>
+        <v>120.7194864459276</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806322</v>
+        <v>82.4427877574863</v>
       </c>
       <c r="I34" t="n">
-        <v>68.54262738304539</v>
+        <v>66.55021474462892</v>
       </c>
       <c r="J34" t="n">
-        <v>68.54262738304539</v>
+        <v>66.55021474462892</v>
       </c>
       <c r="K34" t="n">
-        <v>258.8681761333733</v>
+        <v>148.3852558545708</v>
       </c>
       <c r="L34" t="n">
-        <v>422.9958160071731</v>
+        <v>312.5128957283706</v>
       </c>
       <c r="M34" t="n">
-        <v>717.7779019858231</v>
+        <v>613.674009554933</v>
       </c>
       <c r="N34" t="n">
-        <v>1009.458043657418</v>
+        <v>810.7134513543738</v>
       </c>
       <c r="O34" t="n">
-        <v>1172.162810699126</v>
+        <v>1088.28775388438</v>
       </c>
       <c r="P34" t="n">
-        <v>1320.672127381855</v>
+        <v>1323.033455149257</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.584831392292</v>
+        <v>1326.455651519308</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.377146422773</v>
+        <v>1319.75651450195</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.254367003227</v>
+        <v>1234.142283034564</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.228619569365</v>
+        <v>1115.625083552863</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.48313220917</v>
+        <v>947.3881441448284</v>
       </c>
       <c r="V34" t="n">
-        <v>872.1970914278987</v>
+        <v>798.6106513157173</v>
       </c>
       <c r="W34" t="n">
-        <v>699.5599937569806</v>
+        <v>632.4821015969596</v>
       </c>
       <c r="X34" t="n">
-        <v>576.1729759378679</v>
+        <v>515.6036317300075</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.7542191524156</v>
+        <v>409.6934228967156</v>
       </c>
     </row>
     <row r="35">
@@ -6911,58 +6911,58 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975446</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924216</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129435</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404052</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L35" t="n">
         <v>1059.071548358934</v>
       </c>
       <c r="M35" t="n">
-        <v>1605.072448403514</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N35" t="n">
         <v>2132.883732040977</v>
       </c>
       <c r="O35" t="n">
-        <v>2572.923332933305</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829234</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.29570107106</v>
@@ -6999,10 +6999,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E36" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F36" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G36" t="n">
         <v>199.803798091603</v>
@@ -7011,13 +7011,13 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
         <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860693</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
         <v>978.5393418843826</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D37" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072659</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462909</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>273.010538436486</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>437.1381783102858</v>
+        <v>313.6614512960402</v>
       </c>
       <c r="M37" t="n">
-        <v>623.4297566485498</v>
+        <v>499.9530296343043</v>
       </c>
       <c r="N37" t="n">
-        <v>806.6193906797589</v>
+        <v>683.1426636655135</v>
       </c>
       <c r="O37" t="n">
-        <v>969.3241577214669</v>
+        <v>845.8474307072216</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161894</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974517</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
         <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J38" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K38" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L38" t="n">
         <v>1059.071548358934</v>
@@ -7190,7 +7190,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P38" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q38" t="n">
         <v>3105.956385205776</v>
@@ -7199,22 +7199,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
         <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
         <v>1882.877496443165</v>
@@ -7248,28 +7248,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411552</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>62.11912770411552</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M39" t="n">
-        <v>689.8907773307967</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N39" t="n">
-        <v>1345.668748541356</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O39" t="n">
-        <v>1862.189031132337</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P39" t="n">
-        <v>2267.810399848734</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7321,16 +7321,16 @@
         <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072666</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462913</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
         <v>143.9541688140574</v>
@@ -7339,16 +7339,16 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P40" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q40" t="n">
         <v>1098.20216247628</v>
@@ -7366,13 +7366,13 @@
         <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194224</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330085</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984001</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
         <v>289.463261197452</v>
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1632.186962952785</v>
+        <v>1340.175609875974</v>
       </c>
       <c r="C41" t="n">
-        <v>1336.452713445849</v>
+        <v>1044.441360369038</v>
       </c>
       <c r="D41" t="n">
-        <v>1048.45283665265</v>
+        <v>1043.331955516593</v>
       </c>
       <c r="E41" t="n">
-        <v>743.3105637593281</v>
+        <v>738.1896826232703</v>
       </c>
       <c r="F41" t="n">
-        <v>423.8573772794392</v>
+        <v>418.7364961433811</v>
       </c>
       <c r="G41" t="n">
-        <v>108.1358737575756</v>
+        <v>103.0149926215175</v>
       </c>
       <c r="H41" t="n">
-        <v>103.0149926215174</v>
+        <v>103.0149926215175</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7451,10 +7451,10 @@
         <v>2234.289913763314</v>
       </c>
       <c r="X41" t="n">
-        <v>2234.289913763314</v>
+        <v>1942.278560686504</v>
       </c>
       <c r="Y41" t="n">
-        <v>1935.240456674049</v>
+        <v>1643.229103597238</v>
       </c>
     </row>
     <row r="42">
@@ -7488,16 +7488,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M42" t="n">
-        <v>1223.947919817482</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>475.5803720344858</v>
+        <v>475.5803720344864</v>
       </c>
       <c r="C43" t="n">
-        <v>402.8165060906083</v>
+        <v>402.8165060906088</v>
       </c>
       <c r="D43" t="n">
-        <v>344.6246449832563</v>
+        <v>344.6246449832568</v>
       </c>
       <c r="E43" t="n">
-        <v>286.5070848325921</v>
+        <v>286.5070848325925</v>
       </c>
       <c r="F43" t="n">
-        <v>226.6224020356983</v>
+        <v>226.6224020356986</v>
       </c>
       <c r="G43" t="n">
-        <v>155.8096001252771</v>
+        <v>155.8096001252773</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77230107690437</v>
+        <v>97.77230107690445</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>68.2319501674381</v>
+        <v>68.23195016744069</v>
       </c>
       <c r="K43" t="n">
-        <v>245.5691623529096</v>
+        <v>245.5691623529121</v>
       </c>
       <c r="L43" t="n">
-        <v>505.198973302239</v>
+        <v>505.1989733022414</v>
       </c>
       <c r="M43" t="n">
-        <v>786.9927227160326</v>
+        <v>786.9927227160349</v>
       </c>
       <c r="N43" t="n">
-        <v>1065.684527822772</v>
+        <v>1065.684527822774</v>
       </c>
       <c r="O43" t="n">
-        <v>1323.891465940009</v>
+        <v>1323.891465940011</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.269802792117</v>
+        <v>1539.269802792119</v>
       </c>
       <c r="Q43" t="n">
-        <v>1638.194170237698</v>
+        <v>1638.1941702377</v>
       </c>
       <c r="R43" t="n">
-        <v>1611.734432860408</v>
+        <v>1611.73443286041</v>
       </c>
       <c r="S43" t="n">
-        <v>1506.359601033091</v>
+        <v>1506.359601033092</v>
       </c>
       <c r="T43" t="n">
-        <v>1368.081801191458</v>
+        <v>1368.08180119146</v>
       </c>
       <c r="U43" t="n">
-        <v>1180.084261423493</v>
+        <v>1180.084261423494</v>
       </c>
       <c r="V43" t="n">
-        <v>1011.54616823445</v>
+        <v>1011.546168234451</v>
       </c>
       <c r="W43" t="n">
-        <v>825.6570181557609</v>
+        <v>825.6570181557618</v>
       </c>
       <c r="X43" t="n">
-        <v>689.0179479288772</v>
+        <v>689.017947928878</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.3471387356539</v>
+        <v>563.3471387356545</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1613.733392917555</v>
+        <v>1340.175609875974</v>
       </c>
       <c r="C44" t="n">
-        <v>1317.999143410619</v>
+        <v>1044.441360369038</v>
       </c>
       <c r="D44" t="n">
-        <v>1029.999266617419</v>
+        <v>1002.43609059919</v>
       </c>
       <c r="E44" t="n">
-        <v>724.8569937240973</v>
+        <v>697.2938177058682</v>
       </c>
       <c r="F44" t="n">
-        <v>405.4038072442086</v>
+        <v>377.8406312259792</v>
       </c>
       <c r="G44" t="n">
-        <v>329.6567910648936</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
-        <v>103.0149926215174</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7679,19 +7679,19 @@
         <v>2910.82473168651</v>
       </c>
       <c r="U44" t="n">
-        <v>2752.513254111243</v>
+        <v>2752.513254111242</v>
       </c>
       <c r="V44" t="n">
-        <v>2507.847696804894</v>
+        <v>2507.847696804893</v>
       </c>
       <c r="W44" t="n">
-        <v>2507.847696804894</v>
+        <v>2234.289913763314</v>
       </c>
       <c r="X44" t="n">
-        <v>2215.836343728084</v>
+        <v>1942.278560686504</v>
       </c>
       <c r="Y44" t="n">
-        <v>1916.786886638818</v>
+        <v>1643.229103597238</v>
       </c>
     </row>
     <row r="45">
@@ -7728,19 +7728,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M45" t="n">
-        <v>1223.947919817482</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.783730761083</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>1975.304013352064</v>
       </c>
       <c r="P45" t="n">
         <v>2146.089571124861</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>475.5803720344858</v>
+        <v>475.5803720344864</v>
       </c>
       <c r="C46" t="n">
-        <v>402.8165060906083</v>
+        <v>402.8165060906088</v>
       </c>
       <c r="D46" t="n">
-        <v>344.6246449832563</v>
+        <v>344.6246449832568</v>
       </c>
       <c r="E46" t="n">
-        <v>286.5070848325921</v>
+        <v>286.5070848325925</v>
       </c>
       <c r="F46" t="n">
-        <v>226.6224020356983</v>
+        <v>226.6224020356986</v>
       </c>
       <c r="G46" t="n">
-        <v>155.8096001252771</v>
+        <v>155.8096001252773</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77230107690437</v>
+        <v>97.77230107690445</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>127.8475561822077</v>
+        <v>127.8475561822076</v>
       </c>
       <c r="K46" t="n">
-        <v>305.1847683676791</v>
+        <v>305.184768367679</v>
       </c>
       <c r="L46" t="n">
-        <v>564.8145793170086</v>
+        <v>564.8145793170083</v>
       </c>
       <c r="M46" t="n">
-        <v>846.6083287308022</v>
+        <v>846.6083287308019</v>
       </c>
       <c r="N46" t="n">
-        <v>1125.300133837541</v>
+        <v>1065.684527822774</v>
       </c>
       <c r="O46" t="n">
-        <v>1383.507071954779</v>
+        <v>1323.891465940011</v>
       </c>
       <c r="P46" t="n">
-        <v>1598.885408806887</v>
+        <v>1539.269802792119</v>
       </c>
       <c r="Q46" t="n">
-        <v>1638.194170237698</v>
+        <v>1638.1941702377</v>
       </c>
       <c r="R46" t="n">
-        <v>1611.734432860408</v>
+        <v>1611.73443286041</v>
       </c>
       <c r="S46" t="n">
-        <v>1506.359601033091</v>
+        <v>1506.359601033092</v>
       </c>
       <c r="T46" t="n">
-        <v>1368.081801191458</v>
+        <v>1368.08180119146</v>
       </c>
       <c r="U46" t="n">
-        <v>1180.084261423493</v>
+        <v>1180.084261423494</v>
       </c>
       <c r="V46" t="n">
-        <v>1011.54616823445</v>
+        <v>1011.546168234451</v>
       </c>
       <c r="W46" t="n">
-        <v>825.6570181557609</v>
+        <v>825.6570181557618</v>
       </c>
       <c r="X46" t="n">
-        <v>689.0179479288772</v>
+        <v>689.017947928878</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.3471387356539</v>
+        <v>563.3471387356545</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>200.6887348820993</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>149.7250515977273</v>
+        <v>655.9541253305056</v>
       </c>
       <c r="N2" t="n">
-        <v>680.2527230507684</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>230.1352756649417</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,25 +8055,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>623.5213537622961</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>609.1629971002412</v>
+        <v>591.601186586945</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>341.7619605532445</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8213,22 +8213,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>604.3451443045124</v>
       </c>
       <c r="M5" t="n">
-        <v>240.4627829469356</v>
+        <v>655.9541253305056</v>
       </c>
       <c r="N5" t="n">
-        <v>680.2527230507684</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
         <v>502.0059847475129</v>
@@ -8304,16 +8304,16 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>616.3211167565336</v>
+        <v>591.601186586945</v>
       </c>
       <c r="O6" t="n">
-        <v>92.68755888888889</v>
+        <v>255.5255418589657</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8453,7 +8453,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>492.6922186134283</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8465,13 +8465,13 @@
         <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
-        <v>394.3609707612346</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8535,7 +8535,7 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
         <v>683.7992483186069</v>
@@ -8544,13 +8544,13 @@
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>92.68755888888889</v>
+        <v>577.6575640662504</v>
       </c>
       <c r="P9" t="n">
-        <v>320.3351938922088</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8772,22 +8772,22 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>624.8237719316268</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>126.0381992661173</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,10 +9003,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
@@ -9015,13 +9015,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>136.3731801151487</v>
+        <v>108.8653421701425</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
         <v>327.7205688679246</v>
@@ -9249,16 +9249,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>691.2645480167034</v>
+        <v>438.5811111539143</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
         <v>90.98815315591399</v>
@@ -9477,19 +9477,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>163.9964000092958</v>
       </c>
       <c r="M21" t="n">
-        <v>454.5321323046928</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9717,22 +9717,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
-        <v>454.5321323046928</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>373.8515870339854</v>
       </c>
       <c r="Q24" t="n">
         <v>327.7205688679246</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9960,13 +9960,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>199.6102425680203</v>
       </c>
       <c r="N27" t="n">
-        <v>447.5171231095471</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10197,16 +10197,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>454.5321323046924</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>744.8605591506555</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
@@ -10425,28 +10425,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>454.532132304693</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>289.2815038024237</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10902,13 +10902,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>517.3131487114046</v>
       </c>
       <c r="N39" t="n">
         <v>747.7741039759435</v>
@@ -10920,7 +10920,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>204.7702368236083</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,19 +11136,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>112.3087888732267</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11376,22 +11376,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>259.5940292362812</v>
       </c>
       <c r="Q45" t="n">
         <v>327.7205688679246</v>
@@ -23258,19 +23258,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>98.73105180240645</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>287.5954430211825</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>230.4905691364589</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>159.203927795431</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-5.897504706808832e-13</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23498,19 +23498,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>14.1130620038565</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>315.0398534825604</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>230.4905691364589</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.125499693443999e-12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24698,7 +24698,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>284.0215672213459</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>219.3057081342452</v>
+        <v>224.3753804589424</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25691,7 +25691,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>289.0912395460418</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>243.5346609531178</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,13 +25877,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>237.5747424691227</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>224.3753804589424</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>40.48690626822797</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25925,7 +25925,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>270.8222052111635</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>699383.0563002477</v>
+        <v>698480.7348796072</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>699383.0563002477</v>
+        <v>698480.7348796072</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>665774.5329044516</v>
+        <v>665774.5329044517</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>705941.9379218901</v>
+        <v>705941.9379218902</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>705941.9379218902</v>
+        <v>705941.9379218901</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>668508.6706641905</v>
+        <v>668508.6706641903</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>668508.6706641905</v>
+        <v>668508.6706641903</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595096.1877080773</v>
+        <v>595096.1877080775</v>
       </c>
       <c r="C2" t="n">
         <v>595096.1877080775</v>
@@ -26320,7 +26320,7 @@
         <v>595096.1877080776</v>
       </c>
       <c r="E2" t="n">
-        <v>559271.2048546864</v>
+        <v>559271.2048546865</v>
       </c>
       <c r="F2" t="n">
         <v>559271.2048546863</v>
@@ -26329,31 +26329,31 @@
         <v>595096.1877080778</v>
       </c>
       <c r="H2" t="n">
-        <v>595096.1877080776</v>
+        <v>595096.1877080777</v>
       </c>
       <c r="I2" t="n">
         <v>595096.187708078</v>
       </c>
       <c r="J2" t="n">
-        <v>595096.1877080768</v>
+        <v>595096.187708077</v>
       </c>
       <c r="K2" t="n">
-        <v>595096.187708077</v>
+        <v>595096.1877080769</v>
       </c>
       <c r="L2" t="n">
-        <v>595096.1877080784</v>
+        <v>595096.1877080775</v>
       </c>
       <c r="M2" t="n">
-        <v>595096.187708078</v>
+        <v>595096.1877080777</v>
       </c>
       <c r="N2" t="n">
-        <v>595096.1877080778</v>
+        <v>595096.1877080777</v>
       </c>
       <c r="O2" t="n">
-        <v>561709.7601539129</v>
+        <v>561709.7601539132</v>
       </c>
       <c r="P2" t="n">
-        <v>561709.7601539129</v>
+        <v>561709.7601539131</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.2971343504</v>
+        <v>169649.0058765499</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.12238602682</v>
+        <v>26460.41160941818</v>
       </c>
       <c r="E3" t="n">
-        <v>130452.9311377121</v>
+        <v>130452.9311377122</v>
       </c>
       <c r="F3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301429</v>
+        <v>29094.95587301433</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469664</v>
+        <v>215329.5897923934</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.03337670135</v>
+        <v>46725.80335481242</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.27693436852</v>
+        <v>43782.97194555668</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>18983.55983015685</v>
+        <v>18983.55983015679</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>202745.5458432095</v>
+        <v>208555.398698792</v>
       </c>
       <c r="C4" t="n">
-        <v>202745.5458432095</v>
+        <v>208555.398698792</v>
       </c>
       <c r="D4" t="n">
         <v>188683.9728110359</v>
       </c>
       <c r="E4" t="n">
-        <v>135951.970348308</v>
+        <v>135951.9703483081</v>
       </c>
       <c r="F4" t="n">
-        <v>135951.970348308</v>
+        <v>135951.9703483081</v>
       </c>
       <c r="G4" t="n">
-        <v>160556.2909917899</v>
+        <v>160556.29099179</v>
       </c>
       <c r="H4" t="n">
-        <v>160556.2909917899</v>
+        <v>160556.29099179</v>
       </c>
       <c r="I4" t="n">
-        <v>160556.2909917899</v>
+        <v>160556.29099179</v>
       </c>
       <c r="J4" t="n">
         <v>161306.7834561731</v>
@@ -26445,7 +26445,7 @@
         <v>161306.7834561731</v>
       </c>
       <c r="L4" t="n">
-        <v>160983.9288015119</v>
+        <v>160850.5341924572</v>
       </c>
       <c r="M4" t="n">
         <v>160556.29099179</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.56128814945</v>
+        <v>64406.32768295292</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.56128814945</v>
+        <v>64406.32768295292</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,13 +26482,13 @@
         <v>55112.2895089091</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
@@ -26497,19 +26497,19 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61305.21346446763</v>
+        <v>60332.67530588339</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>55320.40778255073</v>
+        <v>55320.40778255072</v>
       </c>
       <c r="P5" t="n">
-        <v>55320.40778255073</v>
+        <v>55320.40778255072</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>148434.7834423679</v>
+        <v>152485.4554497827</v>
       </c>
       <c r="C6" t="n">
-        <v>326430.0805767186</v>
+        <v>322134.4613263325</v>
       </c>
       <c r="D6" t="n">
-        <v>318102.6352338417</v>
+        <v>310366.3460104503</v>
       </c>
       <c r="E6" t="n">
-        <v>237754.0138597572</v>
+        <v>237645.4533056559</v>
       </c>
       <c r="F6" t="n">
-        <v>368206.9449974692</v>
+        <v>368098.3844433679</v>
       </c>
       <c r="G6" t="n">
-        <v>347275.171527754</v>
+        <v>347275.1715277539</v>
       </c>
       <c r="H6" t="n">
         <v>376370.127400768</v>
       </c>
       <c r="I6" t="n">
-        <v>376370.1274007684</v>
+        <v>376370.1274007683</v>
       </c>
       <c r="J6" t="n">
-        <v>148284.4840510178</v>
+        <v>154800.7692055911</v>
       </c>
       <c r="K6" t="n">
-        <v>370130.3589979845</v>
+        <v>370130.3589979843</v>
       </c>
       <c r="L6" t="n">
-        <v>331236.0120653975</v>
+        <v>327187.1748549244</v>
       </c>
       <c r="M6" t="n">
-        <v>333638.8504663997</v>
+        <v>332587.1554552114</v>
       </c>
       <c r="N6" t="n">
-        <v>376370.1274007682</v>
+        <v>376370.127400768</v>
       </c>
       <c r="O6" t="n">
-        <v>349779.2062939059</v>
+        <v>349678.0353013179</v>
       </c>
       <c r="P6" t="n">
-        <v>368762.7661240628</v>
+        <v>368661.5951314745</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="P2" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129843</v>
+        <v>506.2290737327784</v>
       </c>
       <c r="C4" t="n">
-        <v>531.1342317129843</v>
+        <v>506.2290737327784</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,19 +26811,19 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443781</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>856.7828422880673</v>
+        <v>831.8776843078615</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014439</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126787</v>
+        <v>36.36869484126791</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.96379172087669</v>
+        <v>58.40725419351553</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165921</v>
+        <v>14.33013548902034</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72944978769607</v>
+        <v>23.72944978769598</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129843</v>
+        <v>506.2290737327784</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.2778945563108</v>
+        <v>85.1830525365167</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.7058722559185</v>
+        <v>646.8007142757125</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.7832240455256</v>
+        <v>129.6883820257316</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126787</v>
+        <v>36.36869484126791</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.1342317129843</v>
+        <v>506.2290737327784</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.2778945563108</v>
+        <v>85.1830525365167</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27385,7 +27385,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7.900596095970826</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,13 +27433,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>160.9220412857373</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27464,19 +27464,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>43.99219550354874</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>98.84442721390897</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>128.1091850427963</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
@@ -27558,7 +27558,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
@@ -27594,13 +27594,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>118.5727835600603</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>236.9951326713816</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>1.647456142048441</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27710,10 +27710,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>15.34787464026198</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,7 +27746,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>46.5124463206418</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,10 +27755,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27777,7 +27777,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
@@ -27825,7 +27825,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>19.34431822393046</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
@@ -27834,7 +27834,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>220.5563369251267</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>158.4431210219792</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>43.0921593262744</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28011,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
@@ -28059,16 +28059,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>220.1322412032064</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>66.12369447580224</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="18">
@@ -28719,34 +28719,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>130.3599693155843</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28758,10 +28758,10 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="P19" t="n">
-        <v>35.71049010668918</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
         <v>30.07448747215907</v>
@@ -28989,10 +28989,10 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>5.636002634530001</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29001,31 +29001,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="24">
@@ -29193,43 +29193,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L25" t="n">
-        <v>5.636002634529945</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>130.3599693155843</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29244,25 +29244,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="26">
@@ -29296,7 +29296,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
         <v>93.99127447431646</v>
@@ -29305,22 +29305,22 @@
         <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>86.65052755599572</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>30.27223765901226</v>
+      </c>
+      <c r="R26" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
         <v>93.99127447431646</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431641</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>30.27223765901232</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431641</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29746,31 +29746,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="C32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="D32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="E32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="F32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="G32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="H32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="I32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="J32" t="n">
-        <v>109.5863713539252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -29782,40 +29782,40 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>26.7846627050161</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>109.5863713539252</v>
+        <v>103.2865954513717</v>
       </c>
       <c r="R32" t="n">
-        <v>109.5863713539252</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="T32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="U32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="V32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="W32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="X32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="C34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="D34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="E34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="F34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="G34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="H34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="I34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>109.5863713539252</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="N34" t="n">
-        <v>109.5863713539252</v>
+        <v>13.98970481639549</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="P34" t="n">
-        <v>28.92237465267667</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.5863713539252</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="S34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="T34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="U34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="V34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="W34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="X34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
     </row>
     <row r="35">
@@ -30168,22 +30168,22 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>5.636002634528353</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>5.63600263452814</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30411,19 +30411,19 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>5.63600263452858</v>
       </c>
       <c r="P40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>5.636002634528545</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>122.6619794737488</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="C41" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="D41" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="E41" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="F41" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="G41" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="H41" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="I41" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="T41" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="U41" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="V41" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="W41" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="X41" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="C43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="D43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="E43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="F43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="G43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="H43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="I43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="J43" t="n">
-        <v>36.24905561692935</v>
+        <v>36.24905561693195</v>
       </c>
       <c r="K43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="L43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="M43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="N43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="O43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="P43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="R43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="S43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="T43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="U43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="V43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="W43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="X43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="C44" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="D44" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="E44" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="F44" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="G44" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="H44" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="I44" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="T44" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="U44" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="V44" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="W44" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="X44" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="Y44" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="C46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="D46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="E46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="F46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="G46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="H46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="I46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="J46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="K46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="L46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="M46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="N46" t="n">
-        <v>96.46683947023193</v>
+        <v>36.24905561693183</v>
       </c>
       <c r="O46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="P46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="Q46" t="n">
-        <v>36.24905561692938</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="R46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="S46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="T46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="U46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="V46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="W46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="X46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023185</v>
       </c>
     </row>
   </sheetData>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>57.63033170286198</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>506.2290737327784</v>
       </c>
       <c r="N2" t="n">
-        <v>531.1342317129843</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>79.83382842401652</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>531.1342317129843</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>523.7908842460746</v>
+        <v>506.2290737327784</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>249.0744016643556</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34933,22 +34933,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>451.0969745740207</v>
       </c>
       <c r="M5" t="n">
-        <v>90.73773134920835</v>
+        <v>506.2290737327784</v>
       </c>
       <c r="N5" t="n">
-        <v>531.1342317129843</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>351.7045375065877</v>
@@ -35024,16 +35024,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>530.9490039023669</v>
+        <v>506.2290737327784</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>162.8379829700768</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>349.6338154341909</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>244.7971333371383</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35255,7 +35255,7 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>591.4121262692951</v>
@@ -35264,13 +35264,13 @@
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>484.9700051773615</v>
       </c>
       <c r="P9" t="n">
-        <v>233.2518290728942</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>539.4516590774601</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.05004611020335</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215734</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L13" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M13" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N13" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O13" t="n">
         <v>258.3395240113953</v>
@@ -35586,7 +35586,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.4480384844689</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
@@ -35735,13 +35735,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>51.00106726098203</v>
+        <v>23.49322931597588</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>236.7324157120106</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215738</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
@@ -35823,7 +35823,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>444.4844453457864</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
         <v>351.7045375065877</v>
@@ -35969,16 +35969,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>598.8774259673916</v>
+        <v>346.1939891046024</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
@@ -36054,10 +36054,10 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P19" t="n">
-        <v>156.7975262446473</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="M21" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36285,10 +36285,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>193.809314087322</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
@@ -36297,10 +36297,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L23" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M23" t="n">
         <v>551.5160606510915</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>362.1450102553808</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>286.7682222146707</v>
       </c>
       <c r="Q24" t="n">
         <v>236.7324157120106</v>
@@ -36516,16 +36516,16 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L25" t="n">
-        <v>171.4214974565499</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>315.4000036905431</v>
+        <v>190.6760370094878</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
@@ -36601,22 +36601,22 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>531.134972901782</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>216.9849246700714</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36680,13 +36680,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>107.2231205187084</v>
       </c>
       <c r="N27" t="n">
-        <v>362.1450102553805</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>456.599714906096</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192275</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>381.9767751656</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853755</v>
+        <v>216.9849246700714</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698313</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,16 +36917,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>362.1450102553805</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>659.4884462964889</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>236.7324157120106</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215734</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.4480384844689</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>255.6972530800142</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
@@ -37078,19 +37078,19 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>559.9273734499272</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>560.5142791723504</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>296.2990583649844</v>
+        <v>289.9992824624309</v>
       </c>
       <c r="R32" t="n">
-        <v>71.97338677659195</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>362.1450102553811</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>198.2933506465097</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>192.2480290407352</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>297.7596828067172</v>
+        <v>304.203145279356</v>
       </c>
       <c r="N34" t="n">
-        <v>294.626405728884</v>
+        <v>199.0297391913543</v>
       </c>
       <c r="O34" t="n">
-        <v>164.3482495370789</v>
+        <v>280.3780833636429</v>
       </c>
       <c r="P34" t="n">
-        <v>150.0094107906348</v>
+        <v>237.1168699645222</v>
       </c>
       <c r="Q34" t="n">
-        <v>113.0431353640777</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565483</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
@@ -37479,7 +37479,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>126.7230387724863</v>
+        <v>251.4470054535426</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>424.9260266620927</v>
       </c>
       <c r="N39" t="n">
         <v>662.4019911217769</v>
@@ -37640,7 +37640,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>113.7820836676943</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37707,19 +37707,19 @@
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716074</v>
       </c>
       <c r="P40" t="n">
-        <v>251.4470054535426</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>9.092766644681028</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>22.71185353989334</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>6.174568144770276</v>
+        <v>6.174568144772888</v>
       </c>
       <c r="K43" t="n">
-        <v>179.1284971570419</v>
+        <v>179.1284971570418</v>
       </c>
       <c r="L43" t="n">
-        <v>262.2523342922519</v>
+        <v>262.2523342922518</v>
       </c>
       <c r="M43" t="n">
-        <v>284.6401509230239</v>
+        <v>284.6401509230238</v>
       </c>
       <c r="N43" t="n">
-        <v>281.5068738451907</v>
+        <v>281.5068738451906</v>
       </c>
       <c r="O43" t="n">
-        <v>260.8150890073108</v>
+        <v>260.8150890073107</v>
       </c>
       <c r="P43" t="n">
-        <v>217.5538756081901</v>
+        <v>217.55387560819</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.92360348038441</v>
+        <v>99.92360348038433</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M44" t="n">
         <v>551.5160606510915</v>
@@ -38096,22 +38096,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>172.5106644169666</v>
       </c>
       <c r="Q45" t="n">
         <v>236.7324157120106</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>66.39235199807285</v>
+        <v>66.39235199807277</v>
       </c>
       <c r="K46" t="n">
-        <v>179.1284971570419</v>
+        <v>179.1284971570418</v>
       </c>
       <c r="L46" t="n">
-        <v>262.2523342922519</v>
+        <v>262.2523342922518</v>
       </c>
       <c r="M46" t="n">
-        <v>284.6401509230239</v>
+        <v>284.6401509230238</v>
       </c>
       <c r="N46" t="n">
-        <v>281.5068738451907</v>
+        <v>221.2890899918906</v>
       </c>
       <c r="O46" t="n">
-        <v>260.8150890073108</v>
+        <v>260.8150890073107</v>
       </c>
       <c r="P46" t="n">
-        <v>217.5538756081901</v>
+        <v>217.55387560819</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.70581962708187</v>
+        <v>99.92360348038433</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
